--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.9141735</v>
+        <v>13.351097</v>
       </c>
       <c r="H2">
-        <v>29.828347</v>
+        <v>26.702194</v>
       </c>
       <c r="I2">
-        <v>0.4386258076640954</v>
+        <v>0.4896512610057346</v>
       </c>
       <c r="J2">
-        <v>0.3501214835108996</v>
+        <v>0.3982013633682133</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N2">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O2">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P2">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q2">
-        <v>467.2144116773787</v>
+        <v>642.4938863275645</v>
       </c>
       <c r="R2">
-        <v>1868.857646709515</v>
+        <v>2569.975545310258</v>
       </c>
       <c r="S2">
-        <v>0.1622263722123936</v>
+        <v>0.430356489767615</v>
       </c>
       <c r="T2">
-        <v>0.109544211004545</v>
+        <v>0.3439646083955585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.9141735</v>
+        <v>13.351097</v>
       </c>
       <c r="H3">
-        <v>29.828347</v>
+        <v>26.702194</v>
       </c>
       <c r="I3">
-        <v>0.4386258076640954</v>
+        <v>0.4896512610057346</v>
       </c>
       <c r="J3">
-        <v>0.3501214835108996</v>
+        <v>0.3982013633682133</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.394928</v>
       </c>
       <c r="O3">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P3">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q3">
-        <v>21.848906237336</v>
+        <v>19.559036678672</v>
       </c>
       <c r="R3">
-        <v>131.093437424016</v>
+        <v>117.354220072032</v>
       </c>
       <c r="S3">
-        <v>0.007586385837214473</v>
+        <v>0.01310107153918951</v>
       </c>
       <c r="T3">
-        <v>0.00768412040145059</v>
+        <v>0.01570664686841196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.9141735</v>
+        <v>13.351097</v>
       </c>
       <c r="H4">
-        <v>29.828347</v>
+        <v>26.702194</v>
       </c>
       <c r="I4">
-        <v>0.4386258076640954</v>
+        <v>0.4896512610057346</v>
       </c>
       <c r="J4">
-        <v>0.3501214835108996</v>
+        <v>0.3982013633682133</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N4">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O4">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P4">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q4">
-        <v>17.2345653556505</v>
+        <v>0.6715023243463334</v>
       </c>
       <c r="R4">
-        <v>103.407392133903</v>
+        <v>4.029013946078001</v>
       </c>
       <c r="S4">
-        <v>0.005984192577165641</v>
+        <v>0.0004497869774735075</v>
       </c>
       <c r="T4">
-        <v>0.006061286263986219</v>
+        <v>0.000539241786448851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9141735</v>
+        <v>13.351097</v>
       </c>
       <c r="H5">
-        <v>29.828347</v>
+        <v>26.702194</v>
       </c>
       <c r="I5">
-        <v>0.4386258076640954</v>
+        <v>0.4896512610057346</v>
       </c>
       <c r="J5">
-        <v>0.3501214835108996</v>
+        <v>0.3982013633682133</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N5">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O5">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P5">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q5">
-        <v>335.9428766505125</v>
+        <v>62.95113663868949</v>
       </c>
       <c r="R5">
-        <v>1343.77150660205</v>
+        <v>251.804546554758</v>
       </c>
       <c r="S5">
-        <v>0.1166462180692338</v>
+        <v>0.04216605133094731</v>
       </c>
       <c r="T5">
-        <v>0.07876597220782895</v>
+        <v>0.03370143050815387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9141735</v>
+        <v>13.351097</v>
       </c>
       <c r="H6">
-        <v>29.828347</v>
+        <v>26.702194</v>
       </c>
       <c r="I6">
-        <v>0.4386258076640954</v>
+        <v>0.4896512610057346</v>
       </c>
       <c r="J6">
-        <v>0.3501214835108996</v>
+        <v>0.3982013633682133</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N6">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O6">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P6">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q6">
-        <v>412.7370646222426</v>
+        <v>3.037935313574</v>
       </c>
       <c r="R6">
-        <v>2476.422387733456</v>
+        <v>18.227611881444</v>
       </c>
       <c r="S6">
-        <v>0.1433107262913238</v>
+        <v>0.002034875670434368</v>
       </c>
       <c r="T6">
-        <v>0.1451569824250069</v>
+        <v>0.002439577059100076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9141735</v>
+        <v>13.351097</v>
       </c>
       <c r="H7">
-        <v>29.828347</v>
+        <v>26.702194</v>
       </c>
       <c r="I7">
-        <v>0.4386258076640954</v>
+        <v>0.4896512610057346</v>
       </c>
       <c r="J7">
-        <v>0.3501214835108996</v>
+        <v>0.3982013633682133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N7">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O7">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P7">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q7">
-        <v>8.271152053541666</v>
+        <v>2.303576024551667</v>
       </c>
       <c r="R7">
-        <v>49.62691232124999</v>
+        <v>13.82145614731</v>
       </c>
       <c r="S7">
-        <v>0.002871912676764119</v>
+        <v>0.001542985720074954</v>
       </c>
       <c r="T7">
-        <v>0.002908911208082002</v>
+        <v>0.001849858750539954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.420538000000001</v>
       </c>
       <c r="I8">
-        <v>0.08254933427847916</v>
+        <v>0.1029410304897719</v>
       </c>
       <c r="J8">
-        <v>0.09883924364028299</v>
+        <v>0.125572816671688</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N8">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O8">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P8">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q8">
-        <v>87.92970676913501</v>
+        <v>135.073649368511</v>
       </c>
       <c r="R8">
-        <v>527.5782406148101</v>
+        <v>810.441896211066</v>
       </c>
       <c r="S8">
-        <v>0.03053098744887661</v>
+        <v>0.09047529142199112</v>
       </c>
       <c r="T8">
-        <v>0.03092431476151827</v>
+        <v>0.108469253711883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.420538000000001</v>
       </c>
       <c r="I9">
-        <v>0.08254933427847916</v>
+        <v>0.1029410304897719</v>
       </c>
       <c r="J9">
-        <v>0.09883924364028299</v>
+        <v>0.125572816671688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.394928</v>
       </c>
       <c r="O9">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P9">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q9">
         <v>4.111962025696</v>
@@ -1013,10 +1013,10 @@
         <v>37.007658231264</v>
       </c>
       <c r="S9">
-        <v>0.001427757075619517</v>
+        <v>0.0027542823069511</v>
       </c>
       <c r="T9">
-        <v>0.002169226066633527</v>
+        <v>0.004953091749990428</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>8.420538000000001</v>
       </c>
       <c r="I10">
-        <v>0.08254933427847916</v>
+        <v>0.1029410304897719</v>
       </c>
       <c r="J10">
-        <v>0.09883924364028299</v>
+        <v>0.125572816671688</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N10">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O10">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P10">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q10">
-        <v>3.243543521218</v>
+        <v>0.1411721908006667</v>
       </c>
       <c r="R10">
-        <v>29.191891690962</v>
+        <v>1.270549717206</v>
       </c>
       <c r="S10">
-        <v>0.001126224460138342</v>
+        <v>9.456022816504178E-05</v>
       </c>
       <c r="T10">
-        <v>0.001711100226733114</v>
+        <v>0.0001700499200170755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.420538000000001</v>
       </c>
       <c r="I11">
-        <v>0.08254933427847916</v>
+        <v>0.1029410304897719</v>
       </c>
       <c r="J11">
-        <v>0.09883924364028299</v>
+        <v>0.125572816671688</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N11">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O11">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P11">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q11">
-        <v>63.22441666345001</v>
+        <v>13.234429056261</v>
       </c>
       <c r="R11">
-        <v>379.3464999807001</v>
+        <v>79.406574337566</v>
       </c>
       <c r="S11">
-        <v>0.02195280687882278</v>
+        <v>0.008864710706098844</v>
       </c>
       <c r="T11">
-        <v>0.02223562244609021</v>
+        <v>0.01062774752697359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>8.420538000000001</v>
       </c>
       <c r="I12">
-        <v>0.08254933427847916</v>
+        <v>0.1029410304897719</v>
       </c>
       <c r="J12">
-        <v>0.09883924364028299</v>
+        <v>0.125572816671688</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N12">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O12">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P12">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q12">
-        <v>77.67707535966933</v>
+        <v>0.638675352532</v>
       </c>
       <c r="R12">
-        <v>699.0936782370241</v>
+        <v>5.748078172788</v>
       </c>
       <c r="S12">
-        <v>0.02697106472899065</v>
+        <v>0.0004277987521217189</v>
       </c>
       <c r="T12">
-        <v>0.04097779493027565</v>
+        <v>0.0007693207281049805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>8.420538000000001</v>
       </c>
       <c r="I13">
-        <v>0.08254933427847916</v>
+        <v>0.1029410304897719</v>
       </c>
       <c r="J13">
-        <v>0.09883924364028299</v>
+        <v>0.125572816671688</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N13">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O13">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P13">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q13">
-        <v>1.556630010833333</v>
+        <v>0.4842885307633334</v>
       </c>
       <c r="R13">
-        <v>14.0096700975</v>
+        <v>4.358596776870001</v>
       </c>
       <c r="S13">
-        <v>0.0005404936860312549</v>
+        <v>0.0003243870744441079</v>
       </c>
       <c r="T13">
-        <v>0.0008211852090322137</v>
+        <v>0.0005833530347189523</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.909311666666667</v>
+        <v>2.490853333333333</v>
       </c>
       <c r="H14">
-        <v>5.727935</v>
+        <v>7.47256</v>
       </c>
       <c r="I14">
-        <v>0.05615285163969339</v>
+        <v>0.09135200468148828</v>
       </c>
       <c r="J14">
-        <v>0.06723379943427657</v>
+        <v>0.1114359209528167</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N14">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O14">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P14">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q14">
-        <v>59.81276314442917</v>
+        <v>119.8671568639867</v>
       </c>
       <c r="R14">
-        <v>358.876578866575</v>
+        <v>719.20294118392</v>
       </c>
       <c r="S14">
-        <v>0.0207682111989734</v>
+        <v>0.08028964938681042</v>
       </c>
       <c r="T14">
-        <v>0.02103576575196468</v>
+        <v>0.09625786458267492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.909311666666667</v>
+        <v>2.490853333333333</v>
       </c>
       <c r="H15">
-        <v>5.727935</v>
+        <v>7.47256</v>
       </c>
       <c r="I15">
-        <v>0.05615285163969339</v>
+        <v>0.09135200468148828</v>
       </c>
       <c r="J15">
-        <v>0.06723379943427657</v>
+        <v>0.1114359209528167</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.394928</v>
       </c>
       <c r="O15">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P15">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q15">
-        <v>2.797095768186667</v>
+        <v>3.649040352853334</v>
       </c>
       <c r="R15">
-        <v>25.17386191368</v>
+        <v>32.84136317568</v>
       </c>
       <c r="S15">
-        <v>0.0009712086953278612</v>
+        <v>0.002444207222344999</v>
       </c>
       <c r="T15">
-        <v>0.001475581003254484</v>
+        <v>0.00439547630891381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.909311666666667</v>
+        <v>2.490853333333333</v>
       </c>
       <c r="H16">
-        <v>5.727935</v>
+        <v>7.47256</v>
       </c>
       <c r="I16">
-        <v>0.05615285163969339</v>
+        <v>0.09135200468148828</v>
       </c>
       <c r="J16">
-        <v>0.06723379943427657</v>
+        <v>0.1114359209528167</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N16">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O16">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P16">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q16">
-        <v>2.206368103701667</v>
+        <v>0.1252791289688889</v>
       </c>
       <c r="R16">
-        <v>19.857312933315</v>
+        <v>1.12751216072</v>
       </c>
       <c r="S16">
-        <v>0.0007660960027830189</v>
+        <v>8.391470694354263E-05</v>
       </c>
       <c r="T16">
-        <v>0.001163948298459379</v>
+        <v>0.0001509058245830371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.909311666666667</v>
+        <v>2.490853333333333</v>
       </c>
       <c r="H17">
-        <v>5.727935</v>
+        <v>7.47256</v>
       </c>
       <c r="I17">
-        <v>0.05615285163969339</v>
+        <v>0.09135200468148828</v>
       </c>
       <c r="J17">
-        <v>0.06723379943427657</v>
+        <v>0.1114359209528167</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N17">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O17">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P17">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q17">
-        <v>43.00738849004167</v>
+        <v>11.74450672732</v>
       </c>
       <c r="R17">
-        <v>258.04433094025</v>
+        <v>70.46704036391999</v>
       </c>
       <c r="S17">
-        <v>0.01493304238629999</v>
+        <v>0.007866728068202527</v>
       </c>
       <c r="T17">
-        <v>0.01512542310903956</v>
+        <v>0.009431283495206808</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.909311666666667</v>
+        <v>2.490853333333333</v>
       </c>
       <c r="H18">
-        <v>5.727935</v>
+        <v>7.47256</v>
       </c>
       <c r="I18">
-        <v>0.05615285163969339</v>
+        <v>0.09135200468148828</v>
       </c>
       <c r="J18">
-        <v>0.06723379943427657</v>
+        <v>0.1114359209528167</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N18">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O18">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P18">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q18">
-        <v>52.83857618720889</v>
+        <v>0.5667737491733333</v>
       </c>
       <c r="R18">
-        <v>475.54718568488</v>
+        <v>5.100963742559999</v>
       </c>
       <c r="S18">
-        <v>0.01834663125425609</v>
+        <v>0.0003796374819702341</v>
       </c>
       <c r="T18">
-        <v>0.02787448329357916</v>
+        <v>0.0006827111640619819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.909311666666667</v>
+        <v>2.490853333333333</v>
       </c>
       <c r="H19">
-        <v>5.727935</v>
+        <v>7.47256</v>
       </c>
       <c r="I19">
-        <v>0.05615285163969339</v>
+        <v>0.09135200468148828</v>
       </c>
       <c r="J19">
-        <v>0.06723379943427657</v>
+        <v>0.1114359209528167</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N19">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O19">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P19">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q19">
-        <v>1.058872428472222</v>
+        <v>0.4297676827111112</v>
       </c>
       <c r="R19">
-        <v>9.52985185625</v>
+        <v>3.8679091444</v>
       </c>
       <c r="S19">
-        <v>0.0003676621020530322</v>
+        <v>0.0002878678152165648</v>
       </c>
       <c r="T19">
-        <v>0.0005585979779793088</v>
+        <v>0.0005176795773761076</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.897677</v>
+        <v>1.391518</v>
       </c>
       <c r="H20">
-        <v>3.795354</v>
+        <v>2.783036</v>
       </c>
       <c r="I20">
-        <v>0.05581067612030781</v>
+        <v>0.05103389956736723</v>
       </c>
       <c r="J20">
-        <v>0.04454940037170102</v>
+        <v>0.0415025345671153</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N20">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O20">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P20">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q20">
-        <v>59.4482854251825</v>
+        <v>66.96392122046301</v>
       </c>
       <c r="R20">
-        <v>237.79314170073</v>
+        <v>267.855684881852</v>
       </c>
       <c r="S20">
-        <v>0.02064165710160865</v>
+        <v>0.04485390241179824</v>
       </c>
       <c r="T20">
-        <v>0.01393838751483426</v>
+        <v>0.03584970912467873</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.897677</v>
+        <v>1.391518</v>
       </c>
       <c r="H21">
-        <v>3.795354</v>
+        <v>2.783036</v>
       </c>
       <c r="I21">
-        <v>0.05581067612030781</v>
+        <v>0.05103389956736723</v>
       </c>
       <c r="J21">
-        <v>0.04454940037170102</v>
+        <v>0.0415025345671153</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.394928</v>
       </c>
       <c r="O21">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P21">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q21">
-        <v>2.780051260752</v>
+        <v>2.038540473568</v>
       </c>
       <c r="R21">
-        <v>16.680307564512</v>
+        <v>12.231242841408</v>
       </c>
       <c r="S21">
-        <v>0.000965290494736946</v>
+        <v>0.001365459097935541</v>
       </c>
       <c r="T21">
-        <v>0.0009777262247259999</v>
+        <v>0.001637025170069461</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.897677</v>
+        <v>1.391518</v>
       </c>
       <c r="H22">
-        <v>3.795354</v>
+        <v>2.783036</v>
       </c>
       <c r="I22">
-        <v>0.05581067612030781</v>
+        <v>0.05103389956736723</v>
       </c>
       <c r="J22">
-        <v>0.04454940037170102</v>
+        <v>0.0415025345671153</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N22">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O22">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P22">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q22">
-        <v>2.192923280691</v>
+        <v>0.06998732548866668</v>
       </c>
       <c r="R22">
-        <v>13.157539684146</v>
+        <v>0.4199239529320001</v>
       </c>
       <c r="S22">
-        <v>0.0007614276860369073</v>
+        <v>4.687904486949502E-05</v>
       </c>
       <c r="T22">
-        <v>0.0007712370741551704</v>
+        <v>5.620247176660706E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.897677</v>
+        <v>1.391518</v>
       </c>
       <c r="H23">
-        <v>3.795354</v>
+        <v>2.783036</v>
       </c>
       <c r="I23">
-        <v>0.05581067612030781</v>
+        <v>0.05103389956736723</v>
       </c>
       <c r="J23">
-        <v>0.04454940037170102</v>
+        <v>0.0415025345671153</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N23">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O23">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P23">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q23">
-        <v>42.745316750775</v>
+        <v>6.561081816213</v>
       </c>
       <c r="R23">
-        <v>170.9812670031</v>
+        <v>26.244327264852</v>
       </c>
       <c r="S23">
-        <v>0.01484204573367537</v>
+        <v>0.00439475643206975</v>
       </c>
       <c r="T23">
-        <v>0.01002216943777919</v>
+        <v>0.003512531380593314</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.897677</v>
+        <v>1.391518</v>
       </c>
       <c r="H24">
-        <v>3.795354</v>
+        <v>2.783036</v>
       </c>
       <c r="I24">
-        <v>0.05581067612030781</v>
+        <v>0.05103389956736723</v>
       </c>
       <c r="J24">
-        <v>0.04454940037170102</v>
+        <v>0.0415025345671153</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N24">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O24">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P24">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q24">
-        <v>52.516596684432</v>
+        <v>0.316628788756</v>
       </c>
       <c r="R24">
-        <v>315.099580106592</v>
+        <v>1.899772732536</v>
       </c>
       <c r="S24">
-        <v>0.01823483340436803</v>
+        <v>0.0002120849038226216</v>
       </c>
       <c r="T24">
-        <v>0.0184697507332431</v>
+        <v>0.000254264903485071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.897677</v>
+        <v>1.391518</v>
       </c>
       <c r="H25">
-        <v>3.795354</v>
+        <v>2.783036</v>
       </c>
       <c r="I25">
-        <v>0.05581067612030781</v>
+        <v>0.05103389956736723</v>
       </c>
       <c r="J25">
-        <v>0.04454940037170102</v>
+        <v>0.0415025345671153</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N25">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O25">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P25">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q25">
-        <v>1.05242003625</v>
+        <v>0.2400901965233334</v>
       </c>
       <c r="R25">
-        <v>6.314520217499999</v>
+        <v>1.44054117914</v>
       </c>
       <c r="S25">
-        <v>0.0003654216998819079</v>
+        <v>0.0001608176768715904</v>
       </c>
       <c r="T25">
-        <v>0.000370129386963309</v>
+        <v>0.0001928015165221146</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.50213266666667</v>
+        <v>5.567390333333333</v>
       </c>
       <c r="H26">
-        <v>31.506398</v>
+        <v>16.702171</v>
       </c>
       <c r="I26">
-        <v>0.30886769710116</v>
+        <v>0.2041839481226003</v>
       </c>
       <c r="J26">
-        <v>0.369818240610009</v>
+        <v>0.2490741870652664</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N26">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O26">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P26">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q26">
-        <v>328.9989710267516</v>
+        <v>267.9191269425912</v>
       </c>
       <c r="R26">
-        <v>1973.99382616051</v>
+        <v>1607.514761655547</v>
       </c>
       <c r="S26">
-        <v>0.114235152421058</v>
+        <v>0.1794581045302484</v>
       </c>
       <c r="T26">
-        <v>0.1157068311732183</v>
+        <v>0.2151492011244714</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.50213266666667</v>
+        <v>5.567390333333333</v>
       </c>
       <c r="H27">
-        <v>31.506398</v>
+        <v>16.702171</v>
       </c>
       <c r="I27">
-        <v>0.30886769710116</v>
+        <v>0.2041839481226003</v>
       </c>
       <c r="J27">
-        <v>0.369818240610009</v>
+        <v>0.2490741870652664</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.394928</v>
       </c>
       <c r="O27">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P27">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q27">
-        <v>15.38537230548267</v>
+        <v>8.156093220965333</v>
       </c>
       <c r="R27">
-        <v>138.468350749344</v>
+        <v>73.404838988688</v>
       </c>
       <c r="S27">
-        <v>0.005342115037279637</v>
+        <v>0.005463130036699765</v>
       </c>
       <c r="T27">
-        <v>0.008116405365943411</v>
+        <v>0.009824477413085647</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.50213266666667</v>
+        <v>5.567390333333333</v>
       </c>
       <c r="H28">
-        <v>31.506398</v>
+        <v>16.702171</v>
       </c>
       <c r="I28">
-        <v>0.30886769710116</v>
+        <v>0.2041839481226003</v>
       </c>
       <c r="J28">
-        <v>0.369818240610009</v>
+        <v>0.2490741870652664</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N28">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O28">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P28">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q28">
-        <v>12.13608597334467</v>
+        <v>0.2800156084085556</v>
       </c>
       <c r="R28">
-        <v>109.224773760102</v>
+        <v>2.520140475677001</v>
       </c>
       <c r="S28">
-        <v>0.004213896556069666</v>
+        <v>0.0001875605929943602</v>
       </c>
       <c r="T28">
-        <v>0.006402275574475612</v>
+        <v>0.000337294700488439</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.50213266666667</v>
+        <v>5.567390333333333</v>
       </c>
       <c r="H29">
-        <v>31.506398</v>
+        <v>16.702171</v>
       </c>
       <c r="I29">
-        <v>0.30886769710116</v>
+        <v>0.2041839481226003</v>
       </c>
       <c r="J29">
-        <v>0.369818240610009</v>
+        <v>0.2490741870652664</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N29">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O29">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P29">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q29">
-        <v>236.5613259766167</v>
+        <v>26.2505432770495</v>
       </c>
       <c r="R29">
-        <v>1419.3679558597</v>
+        <v>157.503259662297</v>
       </c>
       <c r="S29">
-        <v>0.08213891686508967</v>
+        <v>0.01758318934951587</v>
       </c>
       <c r="T29">
-        <v>0.08319710338748566</v>
+        <v>0.0210801799766642</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.50213266666667</v>
+        <v>5.567390333333333</v>
       </c>
       <c r="H30">
-        <v>31.506398</v>
+        <v>16.702171</v>
       </c>
       <c r="I30">
-        <v>0.30886769710116</v>
+        <v>0.2041839481226003</v>
       </c>
       <c r="J30">
-        <v>0.369818240610009</v>
+        <v>0.2490741870652664</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N30">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O30">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P30">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q30">
-        <v>290.6375877358116</v>
+        <v>1.266815131227333</v>
       </c>
       <c r="R30">
-        <v>2615.738289622303</v>
+        <v>11.401336181046</v>
       </c>
       <c r="S30">
-        <v>0.1009152977915831</v>
+        <v>0.0008485405459275359</v>
       </c>
       <c r="T30">
-        <v>0.1533230675089462</v>
+        <v>0.001525950759280926</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.50213266666667</v>
+        <v>5.567390333333333</v>
       </c>
       <c r="H31">
-        <v>31.506398</v>
+        <v>16.702171</v>
       </c>
       <c r="I31">
-        <v>0.30886769710116</v>
+        <v>0.2041839481226003</v>
       </c>
       <c r="J31">
-        <v>0.369818240610009</v>
+        <v>0.2490741870652664</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N31">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O31">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P31">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q31">
-        <v>5.824307741388888</v>
+        <v>0.9605882491294445</v>
       </c>
       <c r="R31">
-        <v>52.41876967249999</v>
+        <v>8.645294242165001</v>
       </c>
       <c r="S31">
-        <v>0.002022318430079854</v>
+        <v>0.0006434230672143774</v>
       </c>
       <c r="T31">
-        <v>0.003072557599939828</v>
+        <v>0.001157083091275745</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.971902</v>
+        <v>1.658838</v>
       </c>
       <c r="H32">
-        <v>5.915706</v>
+        <v>4.976514</v>
       </c>
       <c r="I32">
-        <v>0.05799363319626428</v>
+        <v>0.06083785613303767</v>
       </c>
       <c r="J32">
-        <v>0.06943783243283076</v>
+        <v>0.07421317737490037</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N32">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O32">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P32">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q32">
-        <v>61.773522536495</v>
+        <v>79.828142467083</v>
       </c>
       <c r="R32">
-        <v>370.64113521897</v>
+        <v>478.968854802498</v>
       </c>
       <c r="S32">
-        <v>0.02144902684807598</v>
+        <v>0.05347063981133018</v>
       </c>
       <c r="T32">
-        <v>0.02172535227328731</v>
+        <v>0.06410502032847992</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.971902</v>
+        <v>1.658838</v>
       </c>
       <c r="H33">
-        <v>5.915706</v>
+        <v>4.976514</v>
       </c>
       <c r="I33">
-        <v>0.05799363319626428</v>
+        <v>0.06083785613303767</v>
       </c>
       <c r="J33">
-        <v>0.06943783243283076</v>
+        <v>0.07421317737490037</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.394928</v>
       </c>
       <c r="O33">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P33">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q33">
-        <v>2.888789104352</v>
+        <v>2.430157857888</v>
       </c>
       <c r="R33">
-        <v>25.999101939168</v>
+        <v>21.871420720992</v>
       </c>
       <c r="S33">
-        <v>0.00100304649165942</v>
+        <v>0.001627773006961603</v>
       </c>
       <c r="T33">
-        <v>0.001523952941930831</v>
+        <v>0.002927263131775175</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.971902</v>
+        <v>1.658838</v>
       </c>
       <c r="H34">
-        <v>5.915706</v>
+        <v>4.976514</v>
       </c>
       <c r="I34">
-        <v>0.05799363319626428</v>
+        <v>0.06083785613303767</v>
       </c>
       <c r="J34">
-        <v>0.06943783243283076</v>
+        <v>0.07421317737490037</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N34">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O34">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P34">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q34">
-        <v>2.278696428866</v>
+        <v>0.08343236310200002</v>
       </c>
       <c r="R34">
-        <v>20.508267859794</v>
+        <v>0.7508912679180001</v>
       </c>
       <c r="S34">
-        <v>0.000791209872360549</v>
+        <v>5.588482580406676E-05</v>
       </c>
       <c r="T34">
-        <v>0.001202104411604869</v>
+        <v>0.0001004990189063759</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.971902</v>
+        <v>1.658838</v>
       </c>
       <c r="H35">
-        <v>5.915706</v>
+        <v>4.976514</v>
       </c>
       <c r="I35">
-        <v>0.05799363319626428</v>
+        <v>0.06083785613303767</v>
       </c>
       <c r="J35">
-        <v>0.06943783243283076</v>
+        <v>0.07421317737490037</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N35">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O35">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P35">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q35">
-        <v>44.41724044265001</v>
+        <v>7.821509917833</v>
       </c>
       <c r="R35">
-        <v>266.5034426559</v>
+        <v>46.92905950699799</v>
       </c>
       <c r="S35">
-        <v>0.0154225717370901</v>
+        <v>0.005239018805550284</v>
       </c>
       <c r="T35">
-        <v>0.01562125901196225</v>
+        <v>0.006280968550518914</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.971902</v>
+        <v>1.658838</v>
       </c>
       <c r="H36">
-        <v>5.915706</v>
+        <v>4.976514</v>
       </c>
       <c r="I36">
-        <v>0.05799363319626428</v>
+        <v>0.06083785613303767</v>
       </c>
       <c r="J36">
-        <v>0.06943783243283076</v>
+        <v>0.07421317737490037</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N36">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O36">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P36">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q36">
-        <v>54.57071041869867</v>
+        <v>0.377455316196</v>
       </c>
       <c r="R36">
-        <v>491.136393768288</v>
+        <v>3.397097845764</v>
       </c>
       <c r="S36">
-        <v>0.01894806358497264</v>
+        <v>0.0002528278453367544</v>
       </c>
       <c r="T36">
-        <v>0.02878825406830314</v>
+        <v>0.0004546663614491887</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.971902</v>
+        <v>1.658838</v>
       </c>
       <c r="H37">
-        <v>5.915706</v>
+        <v>4.976514</v>
       </c>
       <c r="I37">
-        <v>0.05799363319626428</v>
+        <v>0.06083785613303767</v>
       </c>
       <c r="J37">
-        <v>0.06943783243283076</v>
+        <v>0.07421317737490037</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N37">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O37">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P37">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q37">
-        <v>1.093583984166667</v>
+        <v>0.28621314379</v>
       </c>
       <c r="R37">
-        <v>9.8422558575</v>
+        <v>2.57591829411</v>
       </c>
       <c r="S37">
-        <v>0.0003797146621055817</v>
+        <v>0.0001917118380547828</v>
       </c>
       <c r="T37">
-        <v>0.00057690972574236</v>
+        <v>0.0003447599837707938</v>
       </c>
     </row>
   </sheetData>
